--- a/data/financial_statements/sofp/TMO.xlsx
+++ b/data/financial_statements/sofp/TMO.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -134,9 +251,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -189,12 +303,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -499,144 +610,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>2933000000</v>
+        <v>2919000000</v>
       </c>
       <c r="C2">
-        <v>1904000000</v>
+        <v>1888000000</v>
       </c>
       <c r="D2">
-        <v>2778000000</v>
+        <v>2752000000</v>
       </c>
       <c r="E2">
-        <v>4490000000</v>
+        <v>4477000000</v>
       </c>
       <c r="F2">
-        <v>12047000000</v>
+        <v>12027000000</v>
       </c>
       <c r="G2">
         <v>7023000000</v>
@@ -742,23 +853,23 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>8919000000</v>
+        <v>7671000000</v>
       </c>
       <c r="C3">
-        <v>8892000000</v>
+        <v>7745000000</v>
       </c>
       <c r="D3">
-        <v>8953000000</v>
+        <v>7889000000</v>
       </c>
       <c r="E3">
-        <v>8945000000</v>
+        <v>7977000000</v>
       </c>
       <c r="F3">
-        <v>6365000000</v>
+        <v>5557000000</v>
       </c>
       <c r="G3">
         <v>5476000000</v>
@@ -864,8 +975,8 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
         <v>5722000000</v>
@@ -986,23 +1097,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>1725000000</v>
+        <v>2987000000</v>
       </c>
       <c r="C5">
-        <v>1636000000</v>
+        <v>2799000000</v>
       </c>
       <c r="D5">
-        <v>1562000000</v>
+        <v>2652000000</v>
       </c>
       <c r="E5">
-        <v>1627000000</v>
+        <v>2608000000</v>
       </c>
       <c r="F5">
-        <v>1406000000</v>
+        <v>2234000000</v>
       </c>
       <c r="G5">
         <v>2136000000</v>
@@ -1108,8 +1219,8 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
         <v>19299000000</v>
@@ -1230,8 +1341,8 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
         <v>8628000000</v>
@@ -1243,7 +1354,7 @@
         <v>8448000000</v>
       </c>
       <c r="E7">
-        <v>9864000000</v>
+        <v>8333000000</v>
       </c>
       <c r="F7">
         <v>7049000000</v>
@@ -1352,8 +1463,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
         <v>146000000</v>
@@ -1393,8 +1504,8 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
         <v>58301000000</v>
@@ -1406,7 +1517,7 @@
         <v>61099000000</v>
       </c>
       <c r="E9">
-        <v>62070000000</v>
+        <v>62037000000</v>
       </c>
       <c r="F9">
         <v>38836000000</v>
@@ -1515,23 +1626,23 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>4162000000</v>
+        <v>4308000000</v>
       </c>
       <c r="C10">
-        <v>4207000000</v>
+        <v>4306000000</v>
       </c>
       <c r="D10">
-        <v>4374000000</v>
+        <v>4424000000</v>
       </c>
       <c r="E10">
-        <v>3003000000</v>
+        <v>4640000000</v>
       </c>
       <c r="F10">
-        <v>2980000000</v>
+        <v>2991000000</v>
       </c>
       <c r="G10">
         <v>2584000000</v>
@@ -1637,8 +1748,8 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
         <v>71237000000</v>
@@ -1759,8 +1870,8 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
         <v>90536000000</v>
@@ -1881,8 +1992,8 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
         <v>1010000000</v>
@@ -2003,8 +2114,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
         <v>2471000000</v>
@@ -2125,8 +2236,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
         <v>1864000000</v>
@@ -2247,8 +2358,8 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
         <v>1010000000</v>
@@ -2288,8 +2399,8 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="V17">
         <v>125700000</v>
@@ -2335,8 +2446,8 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="U18">
         <v>719000000</v>
@@ -2400,23 +2511,23 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
-        <v>7637000000</v>
+        <v>2567000000</v>
       </c>
       <c r="C19">
-        <v>7401000000</v>
+        <v>2722000000</v>
       </c>
       <c r="D19">
-        <v>7537000000</v>
+        <v>2871000000</v>
       </c>
       <c r="E19">
-        <v>7766000000</v>
+        <v>2655000000</v>
       </c>
       <c r="F19">
-        <v>5433000000</v>
+        <v>1442000000</v>
       </c>
       <c r="G19">
         <v>1470000000</v>
@@ -2462,8 +2573,8 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
         <v>11118000000</v>
@@ -2584,8 +2695,8 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
         <v>28150000000</v>
@@ -2597,7 +2708,7 @@
         <v>31389000000</v>
       </c>
       <c r="E21">
-        <v>33536000000</v>
+        <v>32333000000</v>
       </c>
       <c r="F21">
         <v>21688000000</v>
@@ -2706,8 +2817,8 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
         <v>1200000000</v>
@@ -2747,8 +2858,8 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
         <v>3140000000</v>
@@ -2869,8 +2980,8 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
         <v>119000000</v>
@@ -2886,23 +2997,23 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
-        <v>3201000000</v>
+        <v>4401000000</v>
       </c>
       <c r="C25">
-        <v>3297000000</v>
+        <v>4534000000</v>
       </c>
       <c r="D25">
-        <v>3370000000</v>
+        <v>4664000000</v>
       </c>
       <c r="E25">
-        <v>2099000000</v>
+        <v>4540000000</v>
       </c>
       <c r="F25">
-        <v>3162000000</v>
+        <v>3984000000</v>
       </c>
       <c r="G25">
         <v>3514000000</v>
@@ -3005,8 +3116,8 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
         <v>35810000000</v>
@@ -3127,20 +3238,20 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
-        <v>46809000000</v>
+        <v>46928000000</v>
       </c>
       <c r="C27">
-        <v>48108000000</v>
+        <v>48225000000</v>
       </c>
       <c r="D27">
-        <v>51616000000</v>
+        <v>51729000000</v>
       </c>
       <c r="E27">
-        <v>54146000000</v>
+        <v>54268000000</v>
       </c>
       <c r="F27">
         <v>34890000000</v>
@@ -3249,8 +3360,8 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
         <v>16596000000</v>
@@ -3371,8 +3482,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
         <v>440000000</v>
@@ -3493,8 +3604,8 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
         <v>40452000000</v>
@@ -3615,8 +3726,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>11011000000</v>
@@ -3737,20 +3848,20 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
-        <v>43549000000</v>
+        <v>43608000000</v>
       </c>
       <c r="C32">
-        <v>42293000000</v>
+        <v>42354000000</v>
       </c>
       <c r="D32">
-        <v>40956000000</v>
+        <v>41018000000</v>
       </c>
       <c r="E32">
-        <v>40793000000</v>
+        <v>40855000000</v>
       </c>
       <c r="F32">
         <v>38710000000</v>
@@ -3859,20 +3970,20 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
-        <v>43549000000</v>
+        <v>43608000000</v>
       </c>
       <c r="C33">
-        <v>42293000000</v>
+        <v>42354000000</v>
       </c>
       <c r="D33">
-        <v>40956000000</v>
+        <v>41018000000</v>
       </c>
       <c r="E33">
-        <v>40793000000</v>
+        <v>40855000000</v>
       </c>
       <c r="F33">
         <v>38710000000</v>
@@ -3981,8 +4092,8 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
         <v>90536000000</v>
@@ -4103,8 +4214,8 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
         <v>392196000</v>
@@ -4225,8 +4336,8 @@
       </c>
     </row>
     <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B36">
         <v>-14693000000</v>
@@ -4347,23 +4458,23 @@
       </c>
     </row>
     <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
+      <c r="A37" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B37">
-        <v>26227000000</v>
+        <v>26241000000</v>
       </c>
       <c r="C37">
-        <v>28356000000</v>
+        <v>28372000000</v>
       </c>
       <c r="D37">
-        <v>30477000000</v>
+        <v>30503000000</v>
       </c>
       <c r="E37">
-        <v>31849000000</v>
+        <v>30659000000</v>
       </c>
       <c r="F37">
-        <v>9660000000</v>
+        <v>9680000000</v>
       </c>
       <c r="G37">
         <v>11754000000</v>
@@ -4469,8 +4580,8 @@
       </c>
     </row>
     <row r="38" spans="1:40">
-      <c r="A38" t="s">
-        <v>37</v>
+      <c r="A38" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B38">
         <v>29160000000</v>
@@ -4482,7 +4593,7 @@
         <v>33255000000</v>
       </c>
       <c r="E38">
-        <v>36339000000</v>
+        <v>35136000000</v>
       </c>
       <c r="F38">
         <v>21707000000</v>
